--- a/spark/experiments/results-sql-g2.2.csv/g2.2-2t-nocache.xlsx
+++ b/spark/experiments/results-sql-g2.2.csv/g2.2-2t-nocache.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="part-00000-daa43b66-eb9e-438e-b" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -150,13 +150,7 @@
     <t>file:///opt/bitnami/spark/spark_data/spark-bench-test/kmeans-data-g2-2.parquet</t>
   </si>
   <si>
-    <t>mean-exp (ns)</t>
-  </si>
-  <si>
     <t>deviation-exp (ns)</t>
-  </si>
-  <si>
-    <t>mean-warmup  (ns)</t>
   </si>
   <si>
     <t>deviation-run (ns)</t>
@@ -172,6 +166,18 @@
   </si>
   <si>
     <t>g2.1-2t-no-cache</t>
+  </si>
+  <si>
+    <t>percentile-exp (ns)</t>
+  </si>
+  <si>
+    <t>percentile95-exp (s)</t>
+  </si>
+  <si>
+    <t>percentile95-warmup (s)</t>
+  </si>
+  <si>
+    <t>percentile-warmup  (ns)</t>
   </si>
 </sst>
 </file>
@@ -720,6 +726,983 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'part-00000-daa43b66-eb9e-438e-b'!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>107831150444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100314730945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>629686037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>743605342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104352638897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100855723097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>440321984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>408854137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99410562933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99018932796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>377481595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>382426485</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>102689439736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99973030918</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>415481790</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>655171506</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101078161791</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101341285490</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>326945815</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>334126816</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101696176120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97767987942</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>335682865</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>489085774</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100824903725</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100487642597</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>296387137</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>324986686</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>103049108774</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>104446966960</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>397656483</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>424868183</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100987031867</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>101594138163</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>333294816</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>411949034</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98769073419</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>98584383822</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>444885849</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>374670639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1638933104"/>
+        <c:axId val="-1638928752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1638933104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1638928752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1638928752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1638933104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -983,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3973,7 +4956,7 @@
         <v>374670639</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -4038,18 +5021,18 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
-        <f>AVERAGE(C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C9,C8,C5,C4)</f>
-        <v>427378448.64999998</v>
+        <f>PERCENTILE((C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C9,C8,C5,C4),0.95)</f>
+        <v>659593197.80000007</v>
       </c>
       <c r="D42" s="1">
-        <v>399579493.69999999</v>
+        <v>580785924.39999998</v>
       </c>
       <c r="E42" s="1">
         <f>C42-D42</f>
-        <v>27798954.949999988</v>
+        <v>78807273.400000095</v>
       </c>
       <c r="H42">
         <f>AVERAGE(H41,H40,H37,H36,H33,H32,H29,H28,H25,H24,H21,H20,H17,H16,H13,H12,H9,H8,H5,H4)</f>
@@ -4062,7 +5045,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
         <f>AVEDEV(C41,C40,C37,C36,C33,C32,C29,C28,C25,C24,C21,C20,C17,C16,C13,C12,C9,C8,C5,C4)</f>
@@ -4082,18 +5065,18 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1">
-        <f>AVERAGE(C39,C38,C35,C34,C31,C30,C27,C26,C23,C22,C19,C18,C15,C14,C11,C10,C7,C6,C3,C2)</f>
-        <v>101253653521.8</v>
+        <f>PERCENTILE((C39,C38,C35,C34,C31,C30,C27,C26,C23,C22,C19,C18,C15,C14,C11,C10,C7,C6,C3,C2),0.95)</f>
+        <v>104616176134.2</v>
       </c>
       <c r="D44" s="1">
-        <v>101314183807.10001</v>
+        <v>103714099492.5</v>
       </c>
       <c r="E44" s="1">
         <f>C44-D44</f>
-        <v>-60530285.300003052</v>
+        <v>902076641.69999695</v>
       </c>
       <c r="H44">
         <f>AVERAGE(H39,H38,H35,H34,H31,H30,H27,H26,H23,H22,H19,H18,H15,H14,H11,H10,H7,H6,H3,H2)</f>
@@ -4106,7 +5089,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1">
         <f>AVEDEV(C39,C38,C35,C34,C31,C30,C27,C26,C23,C22,C19,C18,C15,C14,C11,C10,C7,C6,C3,C2)</f>
@@ -4126,7 +5109,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <f>B41-B2</f>
@@ -4154,7 +5137,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <f>B46/1000/60</f>
@@ -4182,7 +5165,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <f>B47*60</f>
@@ -4200,7 +5183,32 @@
         <v>-0.70034949400019286</v>
       </c>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <f>C42/1000/1000/1000</f>
+        <v>0.65959319780000014</v>
+      </c>
+      <c r="D49">
+        <v>0.58078592439999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <f>C44/1000/1000/1000</f>
+        <v>104.61617613419999</v>
+      </c>
+      <c r="D50">
+        <v>103.71409949250001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/spark/experiments/results-sql-g2.2.csv/g2.2-2t-nocache.xlsx
+++ b/spark/experiments/results-sql-g2.2.csv/g2.2-2t-nocache.xlsx
@@ -941,11 +941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1638933104"/>
-        <c:axId val="-1638928752"/>
+        <c:axId val="2116143232"/>
+        <c:axId val="2116145952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1638933104"/>
+        <c:axId val="2116143232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,12 +1001,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1638928752"/>
+        <c:crossAx val="2116145952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1638928752"/>
+        <c:axId val="2116145952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1638933104"/>
+        <c:crossAx val="2116143232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1969,7 +1969,7 @@
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="A42" sqref="A42:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
